--- a/Project_Data/cancer patient data sets.xlsx
+++ b/Project_Data/cancer patient data sets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amelli\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE8C3AA-6E7A-48C4-8B6B-6C42459DD0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6ABAF6D-5006-42E8-86CE-BA23ECA78431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3104,7 +3104,7 @@
     <t>P999</t>
   </si>
   <si>
-    <t>Swal1ing Difficulty</t>
+    <t>Swallowing Difficulty</t>
   </si>
 </sst>
 </file>
@@ -3449,7 +3449,7 @@
   <dimension ref="A1:Y1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
